--- a/CTROReporting/CTROReporting/bin/Release/Publish/Templates/PDA Abstractor and QC Template.xlsx
+++ b/CTROReporting/CTROReporting/bin/Release/Publish/Templates/PDA Abstractor and QC Template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\Attitude Loose\Attitude Loose\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{518E053F-13E0-4FBF-9F59-2A3B31592C2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orlando Adan" sheetId="7" r:id="rId1"/>
     <sheet name="Elena Gebeniene" sheetId="8" r:id="rId2"/>
     <sheet name="Temisan Otubu" sheetId="9" r:id="rId3"/>
-    <sheet name="Jamie Phontharaksa" sheetId="10" r:id="rId4"/>
+    <sheet name="Chessie Jones jonesc" sheetId="10" r:id="rId4"/>
     <sheet name="Renae Brunetto brunettor" sheetId="11" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
@@ -478,7 +479,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -847,85 +848,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1423" displayName="Table1423" ref="A1:H3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1423" displayName="Table1423" ref="A1:H3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Trial ID" dataDxfId="58"/>
-    <tableColumn id="2" name="Submission Type" dataDxfId="57"/>
-    <tableColumn id="7" name="Submission Number" dataDxfId="56"/>
-    <tableColumn id="3" name="Abstractor" dataDxfId="55"/>
-    <tableColumn id="4" name="Abstraction Date" dataDxfId="54"/>
-    <tableColumn id="8" name="QC Date" dataDxfId="53"/>
-    <tableColumn id="5" name="Abstraction Comments" dataDxfId="52"/>
-    <tableColumn id="6" name="QC Comments" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trial ID" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Submission Type" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Submission Number" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Abstractor" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Abstraction Date" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="QC Date" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Abstraction Comments" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="QC Comments" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14234" displayName="Table14234" ref="A1:H3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14234" displayName="Table14234" ref="A1:H3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Trial ID" dataDxfId="46"/>
-    <tableColumn id="2" name="Submission Type" dataDxfId="45"/>
-    <tableColumn id="7" name="Submission Number" dataDxfId="44"/>
-    <tableColumn id="3" name="Abstractor" dataDxfId="43"/>
-    <tableColumn id="4" name="Abstraction Date" dataDxfId="42"/>
-    <tableColumn id="8" name="QC Date" dataDxfId="41"/>
-    <tableColumn id="5" name="Abstraction Comments" dataDxfId="40"/>
-    <tableColumn id="6" name="QC Comments" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Trial ID" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Submission Type" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Submission Number" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Abstractor" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Abstraction Date" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="QC Date" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Abstraction Comments" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="QC Comments" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table14235" displayName="Table14235" ref="A1:H3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14235" displayName="Table14235" ref="A1:H3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Trial ID" dataDxfId="34"/>
-    <tableColumn id="2" name="Submission Type" dataDxfId="33"/>
-    <tableColumn id="7" name="Submission Number" dataDxfId="32"/>
-    <tableColumn id="3" name="Abstractor" dataDxfId="31"/>
-    <tableColumn id="4" name="Abstraction Date" dataDxfId="30"/>
-    <tableColumn id="8" name="QC Date" dataDxfId="29"/>
-    <tableColumn id="5" name="Abstraction Comments" dataDxfId="28"/>
-    <tableColumn id="6" name="QC Comments" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Submission Type" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Submission Number" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Abstractor" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Abstraction Date" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="QC Date" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Abstraction Comments" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QC Comments" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table14236" displayName="Table14236" ref="A1:H3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14236" displayName="Table14236" ref="A1:H3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Trial ID" dataDxfId="22"/>
-    <tableColumn id="2" name="Submission Type" dataDxfId="21"/>
-    <tableColumn id="7" name="Submission Number" dataDxfId="20"/>
-    <tableColumn id="3" name="Abstractor" dataDxfId="19"/>
-    <tableColumn id="4" name="Abstraction Date" dataDxfId="18"/>
-    <tableColumn id="8" name="QC Date" dataDxfId="17"/>
-    <tableColumn id="5" name="Abstraction Comments" dataDxfId="16"/>
-    <tableColumn id="6" name="QC Comments" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Trial ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Submission Type" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Submission Number" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Abstractor" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Abstraction Date" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="QC Date" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Abstraction Comments" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="QC Comments" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142362" displayName="Table142362" ref="A1:H3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:H3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table142362" displayName="Table142362" ref="A1:H3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Trial ID" dataDxfId="10"/>
-    <tableColumn id="2" name="Submission Type" dataDxfId="9"/>
-    <tableColumn id="7" name="Submission Number" dataDxfId="8"/>
-    <tableColumn id="3" name="Abstractor" dataDxfId="7"/>
-    <tableColumn id="4" name="Abstraction Date" dataDxfId="6"/>
-    <tableColumn id="8" name="QC Date" dataDxfId="5"/>
-    <tableColumn id="5" name="Abstraction Comments" dataDxfId="4"/>
-    <tableColumn id="6" name="QC Comments" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Trial ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Submission Type" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Submission Number" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Abstractor" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Abstraction Date" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="QC Date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Abstraction Comments" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="QC Comments" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2779,11 +2780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3555,11 +3556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="A2:H3"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4331,10 +4332,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4406,7 +4407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CTROReporting/CTROReporting/bin/Release/Publish/Templates/PDA Abstractor and QC Template.xlsx
+++ b/CTROReporting/CTROReporting/bin/Release/Publish/Templates/PDA Abstractor and QC Template.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{518E053F-13E0-4FBF-9F59-2A3B31592C2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{113FD230-1E39-4B22-9D99-99A91D7BFAB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orlando Adan" sheetId="7" r:id="rId1"/>
     <sheet name="Elena Gebeniene" sheetId="8" r:id="rId2"/>
     <sheet name="Temisan Otubu" sheetId="9" r:id="rId3"/>
-    <sheet name="Chessie Jones jonesc" sheetId="10" r:id="rId4"/>
-    <sheet name="Renae Brunetto brunettor" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Hannah Gill gillh" sheetId="12" r:id="rId4"/>
+    <sheet name="Chessie Jones jonesc" sheetId="10" r:id="rId5"/>
+    <sheet name="Renae Brunetto brunettor" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="148">
   <si>
     <t>Verification Pending</t>
   </si>
@@ -543,7 +544,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="75">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -553,6 +554,58 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -848,57 +901,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1423" displayName="Table1423" ref="A1:H3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1423" displayName="Table1423" ref="A1:H3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trial ID" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Submission Type" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Submission Number" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Abstractor" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Abstraction Date" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="QC Date" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Abstraction Comments" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="QC Comments" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trial ID" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Submission Type" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Submission Number" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Abstractor" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Abstraction Date" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="QC Date" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Abstraction Comments" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="QC Comments" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14234" displayName="Table14234" ref="A1:H3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14234" displayName="Table14234" ref="A1:H3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Trial ID" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Submission Type" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Submission Number" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Abstractor" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Abstraction Date" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="QC Date" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Abstraction Comments" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="QC Comments" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Trial ID" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Submission Type" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Submission Number" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Abstractor" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Abstraction Date" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="QC Date" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Abstraction Comments" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="QC Comments" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14235" displayName="Table14235" ref="A1:H3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14235" displayName="Table14235" ref="A1:H3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Submission Type" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Submission Number" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Abstractor" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Abstraction Date" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="QC Date" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Abstraction Comments" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QC Comments" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Submission Type" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Submission Number" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Abstractor" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Abstraction Date" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="QC Date" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Abstraction Comments" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="QC Comments" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5DB819CD-49C7-43FA-B24C-04620756DF0F}" name="Table142357" displayName="Table142357" ref="A1:H3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:H3" xr:uid="{906D7C79-1991-4CFE-9DF6-287403591B8F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B84DA329-212E-4D55-B9BA-1C2C5442B841}" name="Trial ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{88C254EC-572B-4FEA-8C45-1D47A98F5891}" name="Submission Type" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{DB567E4B-F5A7-48A3-AFB0-6B30C6D122E9}" name="Submission Number" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{2306B604-20A9-4924-B6EC-8ABAE021AB39}" name="Abstractor" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{5964BF31-65FB-4297-8DDA-A11A81F23FCE}" name="Abstraction Date" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{D949E370-1ABA-4E8D-A5CC-C0C9AD869929}" name="QC Date" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{74382EC7-828E-4A0C-9F64-698D52A212CA}" name="Abstraction Comments" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{435573C6-716F-4D9A-9FD0-E4EB82575843}" name="QC Comments" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14236" displayName="Table14236" ref="A1:H3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
@@ -915,7 +985,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table142362" displayName="Table142362" ref="A1:H3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
@@ -1991,10 +2061,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2767,10 +2837,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2783,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3543,6 +3613,80 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A1048576">
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A3">
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2E1B69-B0DD-4681-8B95-ACDAFAC71DED}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="6" width="25.6328125" customWidth="1"/>
+    <col min="7" max="8" width="50.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
@@ -3555,7 +3699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
@@ -4331,7 +4475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -4406,7 +4550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M1977"/>
   <sheetViews>

--- a/CTROReporting/CTROReporting/bin/Release/Publish/Templates/PDA Abstractor and QC Template.xlsx
+++ b/CTROReporting/CTROReporting/bin/Release/Publish/Templates/PDA Abstractor and QC Template.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{113FD230-1E39-4B22-9D99-99A91D7BFAB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8E42A653-F236-4354-A8FE-7CE8C053D9A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orlando Adan" sheetId="7" r:id="rId1"/>
-    <sheet name="Elena Gebeniene" sheetId="8" r:id="rId2"/>
-    <sheet name="Temisan Otubu" sheetId="9" r:id="rId3"/>
-    <sheet name="Hannah Gill gillh" sheetId="12" r:id="rId4"/>
-    <sheet name="Chessie Jones jonesc" sheetId="10" r:id="rId5"/>
-    <sheet name="Renae Brunetto brunettor" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Elena Gebeniene" sheetId="8" r:id="rId1"/>
+    <sheet name="Temisan Otubu" sheetId="9" r:id="rId2"/>
+    <sheet name="Hannah Gill gillh" sheetId="12" r:id="rId3"/>
+    <sheet name="Chessie Jones jonesc" sheetId="10" r:id="rId4"/>
+    <sheet name="Renae Brunetto brunettor" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="148">
   <si>
     <t>Verification Pending</t>
   </si>
@@ -544,7 +543,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -554,58 +553,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -901,23 +848,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1423" displayName="Table1423" ref="A1:H3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trial ID" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Submission Type" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Submission Number" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Abstractor" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Abstraction Date" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="QC Date" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Abstraction Comments" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="QC Comments" dataDxfId="63"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14234" displayName="Table14234" ref="A1:H3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
@@ -934,7 +864,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14235" displayName="Table14235" ref="A1:H3" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
@@ -951,7 +881,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5DB819CD-49C7-43FA-B24C-04620756DF0F}" name="Table142357" displayName="Table142357" ref="A1:H3" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:H3" xr:uid="{906D7C79-1991-4CFE-9DF6-287403591B8F}"/>
   <tableColumns count="8">
@@ -968,7 +898,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table14236" displayName="Table14236" ref="A1:H3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="8">
@@ -985,7 +915,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table142362" displayName="Table142362" ref="A1:H3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:H3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
@@ -1298,22 +1228,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="A2:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7265625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="50.7265625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="20.7265625" style="6"/>
+    <col min="1" max="4" width="25.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="50.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="20.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -1339,7 +1269,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1353,7 +1283,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1365,1472 +1295,696 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="8"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="8"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="8"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="8"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="8"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="8"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="8"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="8"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="8"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="8"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="8"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="8"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="8"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="8"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="8"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="8"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="8"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="8"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="8"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="8"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="8"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="8"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="8"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="8"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="8"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="8"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" s="8"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="8"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" s="8"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="8"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="8"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="8"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="8"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="8"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="8"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="8"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="8"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="8"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="8"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="8"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="8"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="8"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="8"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="8"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="8"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="8"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="8"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="8"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="8"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="8"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="8"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="8"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="8"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="8"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="8"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="8"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="8"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="8"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="8"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="8"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="8"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="8"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="8"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="8"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="8"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="8"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102" s="8"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="8"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="8"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="8"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="8"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107" s="8"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="8"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="8"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="8"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="8"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="8"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="8"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="8"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="8"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="8"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="8"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="8"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="8"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
     </row>
-    <row r="120" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="8"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="8"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="8"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="8"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="8"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="8"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
     </row>
-    <row r="126" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="8"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
     </row>
-    <row r="127" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="8"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="8"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="8"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="8"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" s="8"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="8"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="8"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D134" s="8"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N134"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="4" width="25.7265625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="50.7265625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="20.7265625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="8"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="8"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="8"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="8"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="8"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="8"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="8"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="8"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="8"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="8"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="8"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="8"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="8"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="8"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="8"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="8"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="8"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="8"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="8"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="8"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="8"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D51" s="8"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="8"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="8"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="8"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-    </row>
-    <row r="55" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="8"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-    </row>
-    <row r="56" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="8"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-    </row>
-    <row r="57" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="8"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-    </row>
-    <row r="58" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="8"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D59" s="8"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-    </row>
-    <row r="60" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D60" s="8"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="8"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="8"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D63" s="8"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="8"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-    </row>
-    <row r="65" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D65" s="8"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D66" s="8"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D67" s="8"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D68" s="8"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D69" s="8"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D70" s="8"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D71" s="8"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-    </row>
-    <row r="72" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D72" s="8"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-    </row>
-    <row r="73" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D73" s="8"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D74" s="8"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D75" s="8"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D76" s="8"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D77" s="8"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D78" s="8"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D79" s="8"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="8"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D81" s="8"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-    </row>
-    <row r="82" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D82" s="8"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-    </row>
-    <row r="83" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D83" s="8"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-    </row>
-    <row r="84" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D84" s="8"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D85" s="8"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-    </row>
-    <row r="86" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D86" s="8"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D87" s="8"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-    </row>
-    <row r="88" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D88" s="8"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="9"/>
-    </row>
-    <row r="89" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D89" s="8"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="8"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D91" s="8"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-    </row>
-    <row r="92" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D92" s="8"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-    </row>
-    <row r="93" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D93" s="8"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-    </row>
-    <row r="94" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D94" s="8"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D95" s="8"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D96" s="8"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-    </row>
-    <row r="97" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D97" s="8"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-    </row>
-    <row r="98" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D98" s="8"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D99" s="8"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D100" s="8"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-    </row>
-    <row r="101" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D101" s="8"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-    </row>
-    <row r="102" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D102" s="8"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-    </row>
-    <row r="103" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D103" s="8"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D104" s="8"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D105" s="8"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-    </row>
-    <row r="106" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D106" s="8"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D107" s="8"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D108" s="8"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-    </row>
-    <row r="109" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D109" s="8"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-    </row>
-    <row r="110" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D110" s="8"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-    </row>
-    <row r="111" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D111" s="8"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D112" s="8"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
-    </row>
-    <row r="113" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="8"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D114" s="8"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D115" s="8"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D116" s="8"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="9"/>
-    </row>
-    <row r="117" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D117" s="8"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-    </row>
-    <row r="118" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D118" s="8"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-    </row>
-    <row r="119" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D119" s="8"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-    </row>
-    <row r="120" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D120" s="8"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-    </row>
-    <row r="121" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D121" s="8"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-    </row>
-    <row r="122" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D122" s="8"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-    </row>
-    <row r="123" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D123" s="8"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-    </row>
-    <row r="124" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D124" s="8"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-    </row>
-    <row r="125" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D125" s="8"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-    </row>
-    <row r="126" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D126" s="8"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-    </row>
-    <row r="127" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D127" s="8"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-    </row>
-    <row r="128" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D128" s="8"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-    </row>
-    <row r="129" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D129" s="8"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-    </row>
-    <row r="130" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D130" s="8"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-    </row>
-    <row r="131" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D131" s="8"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-    </row>
-    <row r="132" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D132" s="8"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-    </row>
-    <row r="133" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D133" s="8"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-    </row>
-    <row r="134" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="8"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -2849,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
@@ -2857,15 +2011,15 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7265625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="50.7265625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="20.7265625" style="6"/>
+    <col min="1" max="4" width="25.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="50.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="20.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -2891,7 +2045,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2905,7 +2059,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2917,696 +2071,696 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="8"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="8"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="8"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="8"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="8"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="8"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="8"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="8"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="8"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="8"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="8"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="8"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="8"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="8"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="8"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="8"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="8"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="8"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="8"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="8"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="8"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="8"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="8"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="8"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="8"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="8"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" s="8"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="8"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" s="8"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="8"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="8"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="8"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="8"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="8"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="8"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="8"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="8"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="8"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="8"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="8"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="8"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="8"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="8"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="8"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="8"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="8"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="8"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="8"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="8"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="8"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="8"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="8"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="8"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="8"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="8"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="8"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="8"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="8"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="8"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="8"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="8"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="8"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="8"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="8"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="8"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="8"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102" s="8"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="8"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="8"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="8"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="8"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107" s="8"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="8"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="8"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="8"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="8"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="8"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="8"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="8"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="8"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="8"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="8"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="8"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="8"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
     </row>
-    <row r="120" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="8"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="8"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="8"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="8"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="8"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="8"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
     </row>
-    <row r="126" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="8"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
     </row>
-    <row r="127" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="8"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="8"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="8"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="8"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" s="8"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="8"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="8"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="8"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -3625,21 +2779,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2E1B69-B0DD-4681-8B95-ACDAFAC71DED}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6328125" customWidth="1"/>
-    <col min="7" max="8" width="50.6328125" customWidth="1"/>
+    <col min="1" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="8" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -3665,7 +2819,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3675,7 +2829,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3699,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
@@ -3707,15 +2861,15 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7265625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="25.7265625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="50.7265625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="20.7265625" style="6"/>
+    <col min="1" max="4" width="25.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="50.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="20.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -3741,7 +2895,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3755,7 +2909,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3767,696 +2921,696 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="8"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="8"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="8"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="8"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="8"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="8"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="8"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="8"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="8"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="8"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="8"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="8"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="8"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="8"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="8"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="8"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="8"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="8"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="8"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="8"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="8"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="8"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D50" s="8"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D51" s="8"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="8"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="8"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="8"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="8"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="8"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="8"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="8"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="8"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" s="8"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="8"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D62" s="8"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="8"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="8"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="8"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="8"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="8"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="8"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="8"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="8"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="8"/>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D72" s="8"/>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="8"/>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="8"/>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="8"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" s="8"/>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="8"/>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" s="8"/>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="8"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="8"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="8"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D84" s="8"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" s="8"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D86" s="8"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="8"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
     </row>
-    <row r="88" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" s="8"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="8"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" s="8"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="8"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D92" s="8"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="8"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D94" s="8"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D95" s="8"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="8"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="8"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="8"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="8"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="8"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="8"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D102" s="8"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="8"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D104" s="8"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="8"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D106" s="8"/>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D107" s="8"/>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D108" s="8"/>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D109" s="8"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="8"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D111" s="8"/>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="8"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D113" s="8"/>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="8"/>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D115" s="8"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="8"/>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D117" s="8"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D118" s="8"/>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D119" s="8"/>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
     </row>
-    <row r="120" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D120" s="8"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="8"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="8"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="8"/>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="8"/>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D125" s="8"/>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
     </row>
-    <row r="126" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D126" s="8"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
     </row>
-    <row r="127" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D127" s="8"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="8"/>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="8"/>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="8"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D131" s="8"/>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D132" s="8"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D133" s="8"/>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D134" s="8"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -4475,7 +3629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -4483,14 +3637,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6328125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="50.6328125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="50.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
@@ -4516,7 +3670,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4526,7 +3680,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4550,7 +3704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M1977"/>
   <sheetViews>
@@ -4558,23 +3712,23 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" style="2"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -4589,7 +3743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -4602,7 +3756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -4617,7 +3771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -4632,7 +3786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -4645,7 +3799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -4658,7 +3812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -4671,7 +3825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -4684,7 +3838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -4699,7 +3853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -4712,7 +3866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4725,7 +3879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -4738,7 +3892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -4751,7 +3905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4764,7 +3918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -4777,7 +3931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -4790,7 +3944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -4803,7 +3957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -4816,7 +3970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -4829,7 +3983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -4842,7 +3996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -4857,7 +4011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -4870,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -4883,7 +4037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -4896,7 +4050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -4911,7 +4065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -4924,7 +4078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -4937,7 +4091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -4952,7 +4106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -4967,7 +4121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -4980,7 +4134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -4996,7 +4150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -5009,7 +4163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -5022,7 +4176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -5035,7 +4189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -5048,7 +4202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -5061,7 +4215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -5076,7 +4230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5089,7 +4243,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -5102,7 +4256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5118,7 +4272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -5134,7 +4288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -5147,7 +4301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -5162,7 +4316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -5175,7 +4329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -5188,7 +4342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -5203,7 +4357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -5216,7 +4370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -5231,7 +4385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -5244,7 +4398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -5257,7 +4411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -5270,7 +4424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -5283,7 +4437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -5296,7 +4450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -5309,7 +4463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -5322,7 +4476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -5337,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -5353,7 +4507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -5369,7 +4523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -5383,7 +4537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -5398,7 +4552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -5411,7 +4565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -5424,7 +4578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -5437,7 +4591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -5452,7 +4606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -5467,7 +4621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -5480,7 +4634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -5493,7 +4647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5506,7 +4660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -5521,7 +4675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -5534,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -5547,7 +4701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -5560,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -5573,7 +4727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -5586,7 +4740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -5599,7 +4753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -5612,7 +4766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -5625,7 +4779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -5638,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -5651,7 +4805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -5666,7 +4820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -5681,7 +4835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -5696,7 +4850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -5711,7 +4865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -5724,7 +4878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>50</v>
       </c>
@@ -5739,7 +4893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>49</v>
       </c>
@@ -5754,7 +4908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -5767,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -5780,7 +4934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>46</v>
       </c>
@@ -5795,7 +4949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -5808,7 +4962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -5823,7 +4977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -5836,7 +4990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -5849,7 +5003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -5862,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -5875,7 +5029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -5888,7 +5042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -5901,7 +5055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>37</v>
       </c>
@@ -5914,7 +5068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -5927,7 +5081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -5942,7 +5096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -5955,7 +5109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>32</v>
       </c>
@@ -5970,7 +5124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>31</v>
       </c>
@@ -5983,7 +5137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -5996,7 +5150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -6011,7 +5165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -6024,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>27</v>
       </c>
@@ -6037,7 +5191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -6052,7 +5206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -6068,7 +5222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -6084,7 +5238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -6097,7 +5251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -6110,7 +5264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -6125,7 +5279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -6141,7 +5295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -6154,7 +5308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -6167,7 +5321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -6183,7 +5337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -6196,7 +5350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -6209,7 +5363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -6222,7 +5376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -6235,7 +5389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -6250,7 +5404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -6265,7 +5419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -6280,7 +5434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6293,7 +5447,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -6306,7 +5460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -6322,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -6338,7 +5492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -6351,7 +5505,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -6364,7 +5518,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -6377,7 +5531,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -6390,7 +5544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>2</v>
       </c>
@@ -6400,7 +5554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
@@ -6410,56 +5564,56 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="M135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="M136" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="M137" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="M138" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="M139" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="M140" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="M141" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6468,21 +5622,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="M143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="M144" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -6491,28 +5645,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="M146" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="M147" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="M148" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -6521,21 +5675,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="M150" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="M151" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -6544,147 +5698,147 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="M153" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="M154" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="M155" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="M156" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="M157" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="M158" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="M159" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="M160" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="M161" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="M162" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="M163" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="M164" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="M165" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="M166" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="167" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="M167" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="M168" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="M169" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="M170" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="M171" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="M172" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -6693,7 +5847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -6703,7 +5857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -6712,7 +5866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -6721,7 +5875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -6730,7 +5884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -6739,14 +5893,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="M179" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -6755,7 +5909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -6764,98 +5918,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="M182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="M183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="M184" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="M185" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="M186" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="M187" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="M188" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="M189" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="M190" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="M191" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="M192" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="M193" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="M194" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -6864,77 +6018,77 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="M196" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="197" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="M197" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="M198" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="M199" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="M200" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="201" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="M201" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="M202" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="M203" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="M204" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="205" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="M205" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -6943,7 +6097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -6952,7 +6106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -6961,14 +6115,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="M209" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -6976,7 +6130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -6984,21 +6138,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="M212" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="M213" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -7007,28 +6161,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="M215" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="M216" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="M217" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="218" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
@@ -7037,7 +6191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -7047,28 +6201,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="M220" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="M221" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="222" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="M222" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -7078,7 +6232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -7087,7 +6241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -7097,7 +6251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -7106,7 +6260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -7115,28 +6269,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="M228" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="M229" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="M230" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
@@ -7145,42 +6299,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="M232" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="M233" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="M234" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="M235" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="M236" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
@@ -7189,21 +6343,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="M238" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="M239" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -7212,28 +6366,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="M241" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="M242" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="M243" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
@@ -7242,56 +6396,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="M245" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="M246" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="M247" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="M248" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="M249" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="M250" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="251" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="M251" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
@@ -7300,7 +6454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
@@ -7309,7 +6463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
@@ -7318,7 +6472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
@@ -7327,14 +6481,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="M256" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -7343,7 +6497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -7351,42 +6505,42 @@
         <v>136</v>
       </c>
     </row>
-    <row r="259" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="M259" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="M260" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="M261" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="M262" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="263" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="M263" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -7396,14 +6550,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="M265" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -7412,154 +6566,154 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="M267" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="M268" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="M269" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="M270" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="M271" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="272" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="M272" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="273" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="M273" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="274" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="M274" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="275" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="M275" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="276" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="M276" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="277" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="M277" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="M278" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="279" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="M279" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="M280" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="M281" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="M282" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="283" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="M283" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="M284" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="M285" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="M286" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="M287" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
@@ -7568,7 +6722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="289" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -7577,49 +6731,49 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="M290" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="291" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="M291" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="M292" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="M293" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="M294" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="295" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="M295" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
@@ -7628,7 +6782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="297" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
@@ -7637,147 +6791,147 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="M298" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="M299" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="M300" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="M301" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="M302" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="M303" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="M304" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="M305" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="M306" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="307" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="M307" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="M308" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="309" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="M309" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="M310" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="M311" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="M312" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="M313" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="M314" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="315" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="M315" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="M316" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="317" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="M317" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
@@ -7786,112 +6940,112 @@
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="M319" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="M320" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="M321" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="M322" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="M323" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="M324" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="M325" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="M326" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="M327" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="M328" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="M329" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="M330" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="M331" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="M332" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="M333" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
@@ -7901,14 +7055,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="M335" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
@@ -7917,14 +7071,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="M337" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
@@ -7933,21 +7087,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="M339" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="M340" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="341" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
@@ -7956,7 +7110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
@@ -7965,14 +7119,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="343" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="M343" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
@@ -7981,7 +7135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
@@ -7990,28 +7144,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="M346" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="347" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="M347" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="M348" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
@@ -8020,35 +7174,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="M350" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="M351" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="M352" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="353" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="M353" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
@@ -8057,21 +7211,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="M355" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="M356" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="357" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
@@ -8080,7 +7234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="358" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
@@ -8089,35 +7243,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="359" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="M359" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="360" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="M360" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="M361" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="M362" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="363" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="363" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
@@ -8126,28 +7280,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="364" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="M364" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="365" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="M365" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="M366" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
@@ -8156,7 +7310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="368" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
@@ -8165,7 +7319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="369" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
@@ -8174,7 +7328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="370" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
@@ -8184,35 +7338,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="M371" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="372" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="M372" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="373" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="M373" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="M374" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="375" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
@@ -8221,7 +7375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="376" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
@@ -8231,21 +7385,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="377" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="M377" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="M378" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="379" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
@@ -8255,21 +7409,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="380" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="M380" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="381" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="381" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="M381" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="382" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
@@ -8278,42 +7432,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="M383" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="384" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="M384" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="385" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="385" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="M385" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="386" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="M386" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="387" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="387" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="M387" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="388" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
@@ -8322,7 +7476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="389" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
@@ -8331,42 +7485,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="390" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="M390" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="391" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="M391" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="M392" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="393" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="M393" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="394" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="M394" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="395" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
@@ -8375,14 +7529,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="396" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="M396" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="397" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="397" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
@@ -8392,105 +7546,105 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="398" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="M398" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="399" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="M399" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="400" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="M400" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="401" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="M401" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="M402" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="403" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="M403" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="M404" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="405" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="M405" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="M406" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="407" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="M407" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="M408" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="409" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="M409" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="M410" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="M411" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="412" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
@@ -8499,21 +7653,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="M413" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="414" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="M414" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
@@ -8522,105 +7676,105 @@
         <v>35</v>
       </c>
     </row>
-    <row r="416" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="M416" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="417" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="M417" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="418" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="418" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="M418" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="419" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="419" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="M419" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="420" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="M420" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="421" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="421" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="M421" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="422" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="M422" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="423" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="M423" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="424" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="424" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="M424" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="425" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="425" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="M425" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="426" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="426" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="M426" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="427" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="427" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="M427" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="428" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="428" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="M428" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="429" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="429" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="M429" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="430" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="430" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
@@ -8629,7 +7783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="431" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="431" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
@@ -8639,740 +7793,740 @@
         <v>35</v>
       </c>
     </row>
-    <row r="432" spans="6:13" x14ac:dyDescent="0.35">
+    <row r="432" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="M432" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
     </row>
-    <row r="488" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
     </row>
-    <row r="489" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
     </row>
-    <row r="505" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
     </row>
-    <row r="516" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="516" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="519" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="519" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="531" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
     </row>
-    <row r="536" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
     </row>
-    <row r="560" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
     </row>
-    <row r="567" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="567" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
     </row>
-    <row r="568" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="568" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
     </row>
-    <row r="572" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="572" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
     </row>
-    <row r="576" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="576" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H576" s="3"/>
       <c r="I576" s="3"/>
     </row>
-    <row r="577" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H577" s="3"/>
       <c r="I577" s="3"/>
     </row>
-    <row r="589" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="589" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H589" s="3"/>
       <c r="I589" s="3"/>
     </row>
-    <row r="611" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="611" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H611" s="3"/>
       <c r="I611" s="3"/>
     </row>
-    <row r="612" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="612" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H612" s="3"/>
       <c r="I612" s="3"/>
     </row>
-    <row r="641" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="641" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H641" s="3"/>
       <c r="I641" s="3"/>
     </row>
-    <row r="654" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="654" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H654" s="3"/>
       <c r="I654" s="3"/>
     </row>
-    <row r="658" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="658" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H658" s="3"/>
       <c r="I658" s="3"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="669" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="669" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H669" s="3"/>
       <c r="I669" s="3"/>
     </row>
-    <row r="672" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="672" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H672" s="3"/>
       <c r="I672" s="3"/>
     </row>
-    <row r="673" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="673" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H673" s="3"/>
       <c r="I673" s="3"/>
       <c r="K673" s="2"/>
     </row>
-    <row r="678" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="678" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H678" s="3"/>
       <c r="I678" s="3"/>
     </row>
-    <row r="680" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="680" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H680" s="3"/>
       <c r="I680" s="3"/>
     </row>
-    <row r="690" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="690" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H690" s="3"/>
       <c r="K690" s="2"/>
     </row>
-    <row r="693" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="693" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H693" s="3"/>
       <c r="I693" s="3"/>
     </row>
-    <row r="695" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="695" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H695" s="3"/>
       <c r="I695" s="3"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="697" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="697" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H697" s="3"/>
       <c r="I697" s="3"/>
     </row>
-    <row r="709" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="709" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H709" s="3"/>
       <c r="I709" s="3"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="711" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="711" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H711" s="3"/>
       <c r="I711" s="3"/>
       <c r="K711" s="2"/>
     </row>
-    <row r="712" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="712" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H712" s="3"/>
       <c r="I712" s="3"/>
       <c r="K712" s="2"/>
     </row>
-    <row r="713" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="713" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H713" s="3"/>
       <c r="I713" s="3"/>
     </row>
-    <row r="714" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="714" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H714" s="3"/>
       <c r="I714" s="3"/>
       <c r="K714" s="2"/>
     </row>
-    <row r="720" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="720" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H720" s="3"/>
       <c r="K720" s="2"/>
     </row>
-    <row r="728" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="728" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H728" s="3"/>
       <c r="I728" s="3"/>
     </row>
-    <row r="733" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="733" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H733" s="3"/>
       <c r="I733" s="3"/>
     </row>
-    <row r="735" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="735" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H735" s="3"/>
       <c r="I735" s="3"/>
     </row>
-    <row r="737" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="737" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H737" s="3"/>
       <c r="I737" s="3"/>
     </row>
-    <row r="744" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="744" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H744" s="3"/>
       <c r="I744" s="3"/>
     </row>
-    <row r="747" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="747" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H747" s="3"/>
       <c r="I747" s="3"/>
     </row>
-    <row r="748" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="748" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H748" s="3"/>
       <c r="I748" s="3"/>
     </row>
-    <row r="758" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="758" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H758" s="3"/>
       <c r="I758" s="3"/>
       <c r="K758" s="2"/>
     </row>
-    <row r="761" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="761" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H761" s="3"/>
       <c r="I761" s="3"/>
     </row>
-    <row r="762" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="762" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H762" s="3"/>
       <c r="I762" s="3"/>
     </row>
-    <row r="763" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="763" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H763" s="3"/>
       <c r="I763" s="3"/>
     </row>
-    <row r="775" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="775" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H775" s="3"/>
       <c r="I775" s="3"/>
     </row>
-    <row r="778" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="778" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H778" s="3"/>
       <c r="I778" s="3"/>
     </row>
-    <row r="795" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="795" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H795" s="3"/>
       <c r="I795" s="3"/>
     </row>
-    <row r="803" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="803" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H803" s="3"/>
       <c r="I803" s="3"/>
       <c r="K803" s="2"/>
     </row>
-    <row r="858" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="858" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H858" s="3"/>
       <c r="I858" s="3"/>
       <c r="K858" s="2"/>
     </row>
-    <row r="892" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="892" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H892" s="3"/>
       <c r="I892" s="3"/>
     </row>
-    <row r="894" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="894" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H894" s="3"/>
       <c r="I894" s="3"/>
     </row>
-    <row r="905" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="905" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H905" s="3"/>
       <c r="I905" s="3"/>
     </row>
-    <row r="906" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="906" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H906" s="3"/>
       <c r="I906" s="3"/>
     </row>
-    <row r="908" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="908" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H908" s="3"/>
       <c r="I908" s="3"/>
     </row>
-    <row r="909" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="909" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H909" s="3"/>
       <c r="I909" s="3"/>
     </row>
-    <row r="910" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="910" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H910" s="3"/>
       <c r="I910" s="3"/>
     </row>
-    <row r="911" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="911" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H911" s="3"/>
       <c r="I911" s="3"/>
     </row>
-    <row r="912" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="912" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H912" s="3"/>
       <c r="I912" s="3"/>
     </row>
-    <row r="914" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="914" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H914" s="3"/>
       <c r="I914" s="3"/>
     </row>
-    <row r="915" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="915" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H915" s="3"/>
       <c r="I915" s="3"/>
     </row>
-    <row r="924" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="924" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H924" s="3"/>
       <c r="I924" s="3"/>
     </row>
-    <row r="925" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="925" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H925" s="3"/>
       <c r="I925" s="3"/>
     </row>
-    <row r="928" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="928" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H928" s="3"/>
       <c r="I928" s="3"/>
       <c r="K928" s="2"/>
     </row>
-    <row r="938" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="938" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H938" s="3"/>
       <c r="I938" s="3"/>
     </row>
-    <row r="942" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="942" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H942" s="3"/>
       <c r="I942" s="3"/>
     </row>
-    <row r="965" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="965" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H965" s="3"/>
       <c r="I965" s="3"/>
     </row>
-    <row r="975" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="975" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H975" s="3"/>
       <c r="I975" s="3"/>
     </row>
-    <row r="1016" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1016" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1016" s="3"/>
       <c r="I1016" s="3"/>
     </row>
-    <row r="1021" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1021" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1021" s="3"/>
       <c r="I1021" s="3"/>
     </row>
-    <row r="1022" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1022" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1022" s="3"/>
       <c r="I1022" s="3"/>
     </row>
-    <row r="1026" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1026" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1026" s="3"/>
       <c r="I1026" s="3"/>
     </row>
-    <row r="1028" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1028" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1028" s="3"/>
       <c r="I1028" s="3"/>
     </row>
-    <row r="1041" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1041" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1041" s="3"/>
       <c r="I1041" s="3"/>
     </row>
-    <row r="1049" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1049" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1049" s="3"/>
       <c r="I1049" s="3"/>
     </row>
-    <row r="1080" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1080" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1080" s="3"/>
       <c r="I1080" s="3"/>
     </row>
-    <row r="1097" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1097" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1097" s="3"/>
       <c r="I1097" s="3"/>
     </row>
-    <row r="1100" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1100" s="3"/>
       <c r="I1100" s="3"/>
     </row>
-    <row r="1103" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1103" s="3"/>
       <c r="I1103" s="3"/>
     </row>
-    <row r="1104" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1104" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1104" s="3"/>
       <c r="I1104" s="3"/>
     </row>
-    <row r="1124" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1124" s="3"/>
       <c r="I1124" s="3"/>
     </row>
-    <row r="1129" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1129" s="3"/>
       <c r="I1129" s="3"/>
     </row>
-    <row r="1130" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1130" s="3"/>
       <c r="I1130" s="3"/>
     </row>
-    <row r="1172" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1172" s="3"/>
       <c r="I1172" s="3"/>
     </row>
-    <row r="1173" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1173" s="3"/>
       <c r="I1173" s="3"/>
     </row>
-    <row r="1174" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1174" s="3"/>
       <c r="I1174" s="3"/>
     </row>
-    <row r="1175" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1175" s="3"/>
     </row>
-    <row r="1181" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1181" s="3"/>
       <c r="I1181" s="3"/>
     </row>
-    <row r="1191" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1191" s="3"/>
       <c r="I1191" s="3"/>
     </row>
-    <row r="1192" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1192" s="3"/>
       <c r="I1192" s="3"/>
     </row>
-    <row r="1198" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1198" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1198" s="3"/>
       <c r="I1198" s="3"/>
     </row>
-    <row r="1219" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1219" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1219" s="3"/>
       <c r="I1219" s="3"/>
       <c r="K1219" s="2"/>
     </row>
-    <row r="1221" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1221" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1221" s="3"/>
       <c r="I1221" s="3"/>
     </row>
-    <row r="1235" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1235" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1235" s="3"/>
       <c r="K1235" s="2"/>
     </row>
-    <row r="1241" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1241" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1241" s="3"/>
       <c r="I1241" s="3"/>
     </row>
-    <row r="1251" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1251" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1251" s="3"/>
       <c r="I1251" s="3"/>
     </row>
-    <row r="1258" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1258" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1258" s="3"/>
       <c r="I1258" s="3"/>
     </row>
-    <row r="1268" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1268" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1268" s="3"/>
       <c r="I1268" s="3"/>
     </row>
-    <row r="1283" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1283" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1283"/>
       <c r="B1283" s="2"/>
       <c r="F1283" s="5"/>
       <c r="G1283" s="5"/>
     </row>
-    <row r="1286" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H1286" s="3"/>
       <c r="I1286" s="3"/>
     </row>
-    <row r="1295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H1295" s="3"/>
       <c r="I1295" s="3"/>
       <c r="K1295" s="2"/>
     </row>
-    <row r="1317" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1317" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1317" s="3"/>
       <c r="I1317" s="3"/>
     </row>
-    <row r="1319" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1319" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1319" s="3"/>
       <c r="I1319" s="3"/>
     </row>
-    <row r="1320" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1320" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1320" s="3"/>
       <c r="I1320" s="3"/>
     </row>
-    <row r="1321" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1321" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1321" s="3"/>
       <c r="I1321" s="3"/>
     </row>
-    <row r="1344" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1344" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1344" s="3"/>
       <c r="I1344" s="3"/>
     </row>
-    <row r="1349" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1349" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1349" s="3"/>
       <c r="I1349" s="3"/>
     </row>
-    <row r="1350" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1350" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1350" s="3"/>
       <c r="I1350" s="3"/>
     </row>
-    <row r="1354" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1354" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1354" s="3"/>
       <c r="I1354" s="3"/>
     </row>
-    <row r="1356" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1356" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1356" s="3"/>
       <c r="I1356" s="3"/>
     </row>
-    <row r="1369" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1369" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1369" s="3"/>
       <c r="I1369" s="3"/>
     </row>
-    <row r="1377" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1377" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1377" s="3"/>
       <c r="I1377" s="3"/>
     </row>
-    <row r="1408" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1408" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1408" s="3"/>
       <c r="I1408" s="3"/>
     </row>
-    <row r="1425" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1425" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1425" s="3"/>
       <c r="I1425" s="3"/>
     </row>
-    <row r="1428" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1428" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1428" s="3"/>
       <c r="I1428" s="3"/>
     </row>
-    <row r="1431" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1431" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1431" s="3"/>
       <c r="I1431" s="3"/>
     </row>
-    <row r="1432" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1432" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1432" s="3"/>
       <c r="I1432" s="3"/>
     </row>
-    <row r="1452" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1452" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1452" s="3"/>
       <c r="I1452" s="3"/>
     </row>
-    <row r="1457" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1457" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1457" s="3"/>
       <c r="I1457" s="3"/>
     </row>
-    <row r="1458" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1458" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1458" s="3"/>
       <c r="I1458" s="3"/>
     </row>
-    <row r="1500" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1500" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1500" s="3"/>
       <c r="I1500" s="3"/>
     </row>
-    <row r="1501" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1501" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1501" s="3"/>
       <c r="I1501" s="3"/>
     </row>
-    <row r="1502" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1502" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1502" s="3"/>
       <c r="I1502" s="3"/>
     </row>
-    <row r="1503" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1503" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1503" s="3"/>
     </row>
-    <row r="1509" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1509" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1509" s="3"/>
       <c r="I1509" s="3"/>
     </row>
-    <row r="1519" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1519" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1519" s="3"/>
       <c r="I1519" s="3"/>
     </row>
-    <row r="1520" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1520" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1520" s="3"/>
       <c r="I1520" s="3"/>
     </row>
-    <row r="1526" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1526" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1526" s="3"/>
       <c r="I1526" s="3"/>
     </row>
-    <row r="1547" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1547" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1547" s="3"/>
       <c r="I1547" s="3"/>
       <c r="K1547" s="2"/>
     </row>
-    <row r="1549" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1549" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1549" s="3"/>
       <c r="I1549" s="3"/>
     </row>
-    <row r="1563" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1563" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1563" s="3"/>
       <c r="K1563" s="2"/>
     </row>
-    <row r="1569" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1569" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1569" s="3"/>
       <c r="I1569" s="3"/>
     </row>
-    <row r="1579" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1579" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1579" s="3"/>
       <c r="I1579" s="3"/>
     </row>
-    <row r="1586" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1586" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1586" s="3"/>
       <c r="I1586" s="3"/>
     </row>
-    <row r="1596" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1596" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1596" s="3"/>
       <c r="I1596" s="3"/>
     </row>
-    <row r="1614" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1614" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1614" s="3"/>
       <c r="I1614" s="3"/>
     </row>
-    <row r="1623" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1623" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1623" s="3"/>
       <c r="I1623" s="3"/>
       <c r="K1623" s="2"/>
     </row>
-    <row r="1645" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1645" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1645" s="3"/>
       <c r="I1645" s="3"/>
     </row>
-    <row r="1647" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1647" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1647" s="3"/>
       <c r="I1647" s="3"/>
     </row>
-    <row r="1648" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1648" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1648" s="3"/>
       <c r="I1648" s="3"/>
     </row>
-    <row r="1649" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1649" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1649" s="3"/>
       <c r="I1649" s="3"/>
     </row>
-    <row r="1672" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1672" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1672" s="3"/>
       <c r="I1672" s="3"/>
     </row>
-    <row r="1677" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1677" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1677" s="3"/>
       <c r="I1677" s="3"/>
     </row>
-    <row r="1678" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1678" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1678" s="3"/>
       <c r="I1678" s="3"/>
     </row>
-    <row r="1682" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1682" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1682" s="3"/>
       <c r="I1682" s="3"/>
     </row>
-    <row r="1684" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1684" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1684" s="3"/>
       <c r="I1684" s="3"/>
     </row>
-    <row r="1697" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1697" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1697" s="3"/>
       <c r="I1697" s="3"/>
     </row>
-    <row r="1705" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1705" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1705" s="3"/>
       <c r="I1705" s="3"/>
     </row>
-    <row r="1736" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1736" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1736" s="3"/>
       <c r="I1736" s="3"/>
     </row>
-    <row r="1753" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1753" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1753" s="3"/>
       <c r="I1753" s="3"/>
     </row>
-    <row r="1756" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1756" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1756" s="3"/>
       <c r="I1756" s="3"/>
     </row>
-    <row r="1759" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1759" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1759" s="3"/>
       <c r="I1759" s="3"/>
     </row>
-    <row r="1760" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1760" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1760" s="3"/>
       <c r="I1760" s="3"/>
     </row>
-    <row r="1780" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1780" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1780" s="3"/>
       <c r="I1780" s="3"/>
     </row>
-    <row r="1785" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1785" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1785" s="3"/>
       <c r="I1785" s="3"/>
     </row>
-    <row r="1786" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1786" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1786" s="3"/>
       <c r="I1786" s="3"/>
     </row>
-    <row r="1828" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1828" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1828" s="3"/>
       <c r="I1828" s="3"/>
     </row>
-    <row r="1829" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1829" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1829" s="3"/>
       <c r="I1829" s="3"/>
     </row>
-    <row r="1830" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1830" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1830" s="3"/>
       <c r="I1830" s="3"/>
     </row>
-    <row r="1831" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1831" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1831" s="3"/>
     </row>
-    <row r="1837" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1837" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1837" s="3"/>
       <c r="I1837" s="3"/>
     </row>
-    <row r="1847" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1847" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1847" s="3"/>
       <c r="I1847" s="3"/>
     </row>
-    <row r="1848" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1848" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1848" s="3"/>
       <c r="I1848" s="3"/>
     </row>
-    <row r="1854" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1854" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1854" s="3"/>
       <c r="I1854" s="3"/>
     </row>
-    <row r="1875" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1875" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1875" s="3"/>
       <c r="I1875" s="3"/>
       <c r="K1875" s="2"/>
     </row>
-    <row r="1877" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1877" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1877" s="3"/>
       <c r="I1877" s="3"/>
     </row>
-    <row r="1891" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1891" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1891" s="3"/>
       <c r="K1891" s="2"/>
     </row>
-    <row r="1897" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1897" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1897" s="3"/>
       <c r="I1897" s="3"/>
     </row>
-    <row r="1907" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1907" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1907" s="3"/>
       <c r="I1907" s="3"/>
     </row>
-    <row r="1914" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1914" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1914" s="3"/>
       <c r="I1914" s="3"/>
     </row>
-    <row r="1924" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1924" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1924" s="3"/>
       <c r="I1924" s="3"/>
     </row>
-    <row r="1942" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1942" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1942" s="3"/>
       <c r="I1942" s="3"/>
     </row>
-    <row r="1951" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="1951" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H1951" s="3"/>
       <c r="I1951" s="3"/>
       <c r="K1951" s="2"/>
     </row>
-    <row r="1973" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1973" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1973" s="3"/>
       <c r="I1973" s="3"/>
     </row>
-    <row r="1975" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1975" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1975" s="3"/>
       <c r="I1975" s="3"/>
     </row>
-    <row r="1976" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1976" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1976" s="3"/>
       <c r="I1976" s="3"/>
     </row>
-    <row r="1977" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="1977" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H1977" s="3"/>
       <c r="I1977" s="3"/>
     </row>
